--- a/資料/Kitchen_Timer_仕様書v0.22.xlsx
+++ b/資料/Kitchen_Timer_仕様書v0.22.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443654D-6C16-4ED3-9FA1-C9274FBFC952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{294DD7BD-6C34-427D-90B0-E8189C593755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="324" yWindow="84" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{97BABA5A-0E21-4163-A2A1-4DE603A3D527}"/>
   </bookViews>
   <sheets>
-    <sheet name="仕様" sheetId="3" r:id="rId1"/>
-    <sheet name="画面遷移" sheetId="4" r:id="rId2"/>
-    <sheet name="構成図" sheetId="2" r:id="rId3"/>
-    <sheet name="ピン配置" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="仕様" sheetId="1" r:id="rId1"/>
+    <sheet name="構成図" sheetId="2" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="3" r:id="rId3"/>
+    <sheet name="改変記録" sheetId="5" r:id="rId4"/>
+    <sheet name="ピン配置" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="fuminori.hakoishi - 個人用ビュー" guid="{EE3F8681-E454-4DC4-92D5-FFCCEDEB7414}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>カウントダウンのスタート・ストップ</t>
     <phoneticPr fontId="1"/>
@@ -153,13 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・スタートストップボタンを押すと、カウントダウンをスタートしたり、ストップする</t>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・設定した時間や残りのカウント時間をLCDで表示する</t>
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
@@ -240,13 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブザー：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,22 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カウントダウン中の一時的なストップ・再開</t>
-    <rPh sb="7" eb="8">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・カウントダウン中は、「m」と「s」が0.5s間隔で点滅する</t>
     <rPh sb="8" eb="9">
       <t>チュウ</t>
@@ -474,22 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例：5分を設定する場合</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタートストップボタンを押す</t>
     <rPh sb="12" eb="13">
       <t>オ</t>
@@ -581,30 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分ボタンと秒ボタンを</t>
-    <rPh sb="0" eb="1">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時に押すとリセット</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>00m00sが表示される</t>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
@@ -649,9 +583,6 @@
     <t>カウントダウンされる</t>
   </si>
   <si>
-    <t>カウント時間設定へ戻る</t>
-  </si>
-  <si>
     <t>画面遷移</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -834,81 +765,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り上がる分、分に加算される</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・50~59秒などの時に秒ボタンや分ボタンを押すことで単位が繰り上がる場合、</t>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・入力が99分59秒を超える場合、99分59秒となる</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・00m00sの時にスタートストップボタンを押すと、何も起こらない</t>
     <rPh sb="8" eb="9">
       <t>トキ</t>
@@ -925,86 +781,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・長く押し続けると、0.5秒間隔でカウント時間が1分ずつ増え、10分増えると、10分ずつ増えるようになる</t>
-    <rPh sb="1" eb="2">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・長く押し続けると、0.5秒間隔でカウント時間が1秒ずつ増え、10秒増えると、10秒ずつ増えるようになる</t>
-    <rPh sb="1" eb="2">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>短く4回鳴動し少し待つ（ここまで1秒）を10回（約10秒）行う</t>
     <rPh sb="17" eb="18">
       <t>ビョウ</t>
@@ -1053,13 +829,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再度、カウント時間を設定できる</t>
-    <rPh sb="0" eb="2">
-      <t>サイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カウント時間を変更できる</t>
     <rPh sb="4" eb="6">
       <t>ジカン</t>
@@ -1135,22 +904,6 @@
   </si>
   <si>
     <t>何も起きない</t>
-  </si>
-  <si>
-    <t>設定した時間が経過した時</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1. ブロック図</t>
@@ -1363,10 +1116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>V0.22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ピン配置 シート 追加</t>
     <rPh sb="2" eb="4">
       <t>ハイチ</t>
@@ -1382,6 +1131,420 @@
   </si>
   <si>
     <t>SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB0/CCP1/INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AE-AQM0802</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カウント時間が99分59秒を超える場合、99分59秒となる</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンのスタート、一時的なストップ・再開</t>
+    <rPh sb="13" eb="15">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1秒に1カウント、カウントが減っていく</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カウント時間設定中にスタートストップボタンを押すと、カウントダウンがスタートする</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カウントダウン中にスタートストップボタンを押すと、カウントダウンが一時停止し、再度押すと、再開する</t>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知が停止し、再度、カウント時間を設定できる</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1秒押し続けると、0.25秒間隔でカウント時間が1秒ずつ増え、10秒増えると、10秒ずつ増えるようになる</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1秒押し続けると、0.25秒間隔でカウント時間が1分ずつ増え、10分増えると、10分ずつ増えるようになる</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カウント時間の秒が59秒より上回る場合、分に繰り上がる</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN17/RA0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN18/RA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN6/RB0/INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN7/RB1/SDA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN10/RB4/SCL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN9/RB3/CCP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCD AE-AQM0802</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 配線図</t>
+    <rPh sb="3" eb="6">
+      <t>ハイセンズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2回 仕様書レビュー後 指摘箇所 修正</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定した時間が</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過した場合</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知中は表示されている文字が点滅する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5秒間隔</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット動作</t>
+  </si>
+  <si>
+    <t>リセット動作</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット動作 後</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分ボタンと秒ボタンを同時に押す</t>
+    <rPh sb="0" eb="1">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定へ遷移する</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1389,7 +1552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,6 +1633,50 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1639,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,12 +1910,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1730,9 +1931,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1741,12 +1939,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1772,11 +1964,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2792,6 +3035,2091 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>54993</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFE242C-BDB0-4E01-912B-7D63035DDFA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54993" y="9582150"/>
+          <a:ext cx="13699106" cy="5344886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60E8694-88E8-45F0-B481-200A2F00C928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="957943"/>
+          <a:ext cx="1371600" cy="2917371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>PIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>マイコン</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>PIC16F1827</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85367F97-F263-4946-A482-D34F34E3670D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="914400"/>
+          <a:ext cx="1341120" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>SW1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E523861C-7921-4A64-AE75-A3E84F1F9AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1889760"/>
+          <a:ext cx="1371600" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>SW2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>236219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>236219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3151B36-405E-41F0-B56D-BDB5EB5DFDE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2849879"/>
+          <a:ext cx="1371600" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>SW3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1DF613-EABC-44E3-96F8-0A7A104A89D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216140" y="1988820"/>
+          <a:ext cx="1341120" cy="1021080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ＬＣＤ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>AE-AQM0802</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F9917F-17B7-4475-90E3-6E9F1791ABC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="190500"/>
+          <a:ext cx="1341120" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>入力部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A5C35-CFAB-4147-ADE6-5C9A6D1A3A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="228600"/>
+          <a:ext cx="1341120" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>出力部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCE3FDF-F3BA-4FBE-A698-2A33BAD608E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="228600"/>
+          <a:ext cx="1341120" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>処理部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A88B51F-9803-498B-A49A-A556482269E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2756452" y="1192696"/>
+          <a:ext cx="1378226" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C128797-B038-4323-AA04-19F41A16FFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2125980"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CFA2FD-DB90-4355-A1FA-9BEE051BE6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211286" y="4484914"/>
+          <a:ext cx="1349828" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D96E0CA-8D16-4582-AA5B-6170EC42D6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875020" y="2217420"/>
+          <a:ext cx="1341120" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA1F6CD-4C34-4B69-8C27-21274C9170DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7260771" y="3864429"/>
+          <a:ext cx="1349829" cy="740228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ブザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C3F2FD-6E34-4832-8EF1-2993E1D5B41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5910943" y="4159431"/>
+          <a:ext cx="1349828" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313986</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>445591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130443</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30FF766-B942-4381-B9C4-571EA6320DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13839486" y="1809571"/>
+          <a:ext cx="6240946" cy="7693472"/>
+          <a:chOff x="440877" y="6038432"/>
+          <a:chExt cx="4765696" cy="5913905"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="図 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DDAC54-7AEA-4716-AD3A-CDF5D2232228}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="-133228" y="6612537"/>
+            <a:ext cx="5913905" cy="4765696"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACA0012-4129-4828-BEFA-1AF591835AC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1995288" y="8680396"/>
+            <a:ext cx="1682163" cy="722939"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+              <a:t>PIC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+              <a:t>マイコン</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+              <a:t>PIC16F1827</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>335552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E275ADE4-4759-41E4-98D2-B0FFD8C6D0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5910943" y="2784838"/>
+          <a:ext cx="1349828" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C7659A-299F-46BB-B8A3-DA4287E18AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803991" y="1859554"/>
+          <a:ext cx="1554752" cy="1177560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>235144</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DAF2DF-2FB2-493D-8D5F-A867F2EA5944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12554" t="11688" r="42641" b="51804"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21063857" y="1143000"/>
+          <a:ext cx="3609716" cy="2209430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>110140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600CFCA9-8459-4DDC-89AB-D60F27D80FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20704629" y="2375064"/>
+          <a:ext cx="469368" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>116078</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE21D42-7AE4-415F-8B46-3EF819FD10E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20704629" y="2710543"/>
+          <a:ext cx="475306" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>212034</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>362495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD29CE7-0A6E-405A-9B54-4D064EAC5C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17101930" y="3558209"/>
+          <a:ext cx="3496635" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>284922</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>13857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783FE6EF-D0CA-40F8-98F0-A01AED9D2C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16505583" y="4178652"/>
+          <a:ext cx="1067404" cy="612009"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>637312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA7D29D-09BD-4B87-A974-2928B1EB9259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17651683" y="2710543"/>
+          <a:ext cx="3129146" cy="312716"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>249484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D836ABA-8437-47FC-BE10-933A621D145C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11489083" y="5028649"/>
+          <a:ext cx="2129281" cy="1979996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>655983</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>477078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>79514</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>543339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE26E0A-283C-41F5-B775-9F162129646F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13530470" y="5751443"/>
+          <a:ext cx="762001" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581893</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504B75E3-8246-48E9-B79A-DFE68B6753BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14299096" y="5127988"/>
+          <a:ext cx="1834223" cy="808986"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC52F-7584-4866-A3D6-FDE4AF582445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16029709" y="3823856"/>
+          <a:ext cx="845128" cy="41563"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13252</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32472</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62971BA0-57D3-4649-91AA-5D5D5ABED704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16903148" y="4770783"/>
+          <a:ext cx="19220" cy="343351"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106017</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D070D492-4745-44A1-A323-41C46A959E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13543722" y="6018648"/>
+          <a:ext cx="775252" cy="77352"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238539</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581892</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4444C7-2F1E-4E9B-B489-1B14C63846F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="6685722"/>
+          <a:ext cx="343353" cy="1352927"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCE6B81-84B0-4A85-8574-0BC3ECD65295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16651357" y="6665843"/>
+          <a:ext cx="390939" cy="1400514"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106017</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F7D070-FD3C-4FF8-94B3-1F6DD1576DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15759245" y="4770783"/>
+          <a:ext cx="567433" cy="66223"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>443346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC86F9DC-43E8-4BA4-8307-B6663EF0C4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15711054" y="3546764"/>
+          <a:ext cx="0" cy="2064327"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>244504</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>229293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBBEA66-D80C-46BF-9D7B-91E0E876B375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15795930" y="6848754"/>
+          <a:ext cx="1425270" cy="1162185"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2938,8 +5266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="8282720" y="6519164"/>
-          <a:ext cx="881454" cy="1198279"/>
+          <a:off x="8332346" y="6474661"/>
+          <a:ext cx="885936" cy="1205964"/>
           <a:chOff x="8690722" y="7754949"/>
           <a:chExt cx="918434" cy="1235483"/>
         </a:xfrm>
@@ -3731,15 +6059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>3399</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>217171</xdr:rowOff>
+      <xdr:colOff>110976</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3754,8 +6082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6545374" y="4183586"/>
-          <a:ext cx="346711" cy="940659"/>
+          <a:off x="3859549" y="7712992"/>
+          <a:ext cx="343574" cy="944693"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3791,15 +6119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90078</xdr:rowOff>
+      <xdr:colOff>107578</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>3400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:colOff>110977</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3814,8 +6142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="6616267" y="6133897"/>
-          <a:ext cx="345351" cy="950456"/>
+          <a:off x="3859302" y="8162803"/>
+          <a:ext cx="344069" cy="944693"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3843,142 +6171,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215152</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>35074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80681</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>188258</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="矢印: 折線 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6345C5F6-2B2A-47D4-9E8A-3C203D12214C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4294093" y="3136862"/>
-          <a:ext cx="3316941" cy="2860525"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 14010"/>
-            <a:gd name="adj2" fmla="val 14106"/>
-            <a:gd name="adj3" fmla="val 21530"/>
-            <a:gd name="adj4" fmla="val 57843"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リセット動作</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3531</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>64936</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="矢印: 折線 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D74F5C5-4E4F-4983-8A1E-514FA35C83CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="6625593" y="1957162"/>
-          <a:ext cx="988300" cy="1054305"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4044,50 +6236,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>191790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33343</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>224379</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56223A56-D1F1-401F-B131-2ED649C5CA1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6467084" y="4363907"/>
-          <a:ext cx="1087087" cy="426757"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -4158,8 +6306,8 @@
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>199130</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4175,7 +6323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9583270" y="6581999"/>
-          <a:ext cx="2958353" cy="1057837"/>
+          <a:ext cx="2958353" cy="2929554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4457,30 +6605,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53209</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="31" name="矢印: 下 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60E8694-88E8-45F0-B481-200A2F00C928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16E10C0-5EED-4691-8970-9CE426C91B2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4488,2051 +6631,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="957943"/>
-          <a:ext cx="1371600" cy="2917371"/>
+          <a:off x="10407444" y="7704491"/>
+          <a:ext cx="412956" cy="749227"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>PIC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>マイコン</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>PIC16F1827</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85367F97-F263-4946-A482-D34F34E3670D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="914400"/>
-          <a:ext cx="1341120" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>SW1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E523861C-7921-4A64-AE75-A3E84F1F9AF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1889760"/>
-          <a:ext cx="1371600" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>SW2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>236219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>236219</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3151B36-405E-41F0-B56D-BDB5EB5DFDE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="2849879"/>
-          <a:ext cx="1371600" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>SW3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1DF613-EABC-44E3-96F8-0A7A104A89D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="944880"/>
-          <a:ext cx="1371600" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ＬＣＤ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>AE-AQM0802</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F9917F-17B7-4475-90E3-6E9F1791ABC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="190500"/>
-          <a:ext cx="1341120" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>入力部</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A5C35-CFAB-4147-ADE6-5C9A6D1A3A55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="228600"/>
-          <a:ext cx="1341120" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>出力部</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>440876</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>225461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>645458</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>195766</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DDAC54-7AEA-4716-AD3A-CDF5D2232228}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="-199504" y="6280523"/>
-          <a:ext cx="6030447" cy="4749688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCE3FDF-F3BA-4FBE-A698-2A33BAD608E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4023360" y="228600"/>
-          <a:ext cx="1341120" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>処理部</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A88B51F-9803-498B-A49A-A556482269E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2756452" y="1192696"/>
-          <a:ext cx="1378226" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C128797-B038-4323-AA04-19F41A16FFA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="2125980"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>236219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CFA2FD-DB90-4355-A1FA-9BEE051BE6D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2743200" y="3086099"/>
-          <a:ext cx="1371600" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D96E0CA-8D16-4582-AA5B-6170EC42D6E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="1318260"/>
-          <a:ext cx="1371600" cy="1905"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA1F6CD-4C34-4B69-8C27-21274C9170DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="2141220"/>
-          <a:ext cx="1371600" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ブザー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C3F2FD-6E34-4832-8EF1-2993E1D5B41A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="23" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5486400" y="2411186"/>
-          <a:ext cx="1371600" cy="5443"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>382905</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150496</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>433524</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>230506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B643756-50E3-4236-A7CD-E2E0D18041B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1068705" y="629467"/>
-          <a:ext cx="2108019" cy="3476353"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>240783</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>128036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1147482</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095E2A8B-58B1-4258-8759-CCAFC95AEBB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="913136" y="10903612"/>
-          <a:ext cx="2251405" cy="696717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>645459</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACA0012-4129-4828-BEFA-1AF591835AC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990165" y="8335896"/>
-          <a:ext cx="1676400" cy="736386"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>PIC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>マイコン</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>PIC16F1827</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>169984</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>169984</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F69C54-4869-4FBC-BDDF-BF37A6978307}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5328138" y="756138"/>
-          <a:ext cx="0" cy="1002324"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>52754</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>189570</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D21B7E-DA9A-4742-8871-68A94ABF1422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4528110" y="2242396"/>
-          <a:ext cx="776153" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180610</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>315425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123094</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B74FC7-D77C-4A4F-95CF-400BFC4FE534}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5286010" y="846994"/>
-          <a:ext cx="1411165" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128954</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C6E936-F036-4BE9-AB44-6C4DC21D683B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1914525" y="1767254"/>
-          <a:ext cx="957263" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13FF80B-D89F-4D14-9C75-224FCFE2D00C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6513443" y="1767891"/>
-          <a:ext cx="165657" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>169990</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>169991</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CC6E68-BBA6-4988-9789-8897C5F75ADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6551740" y="1749669"/>
-          <a:ext cx="1" cy="1374531"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>181709</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95981</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27FA415-6414-42C5-96C8-A08B8D19CB30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1914525" y="3124931"/>
-          <a:ext cx="4648934" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C600433-E4AC-4898-A7EA-805E3407CCE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1914526" y="1761394"/>
-          <a:ext cx="1" cy="1358044"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>153134</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>153135</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD320787-8F75-46B5-9D5B-C0F1548E5794}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2067659" y="2212000"/>
-          <a:ext cx="1" cy="712175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172184</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>126025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172185</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11504128-CEBF-4F36-9163-A225BCC09D25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5915759" y="1307125"/>
-          <a:ext cx="1" cy="1388450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>176946</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>130788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>176947</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBDF3F9-5089-426B-80B3-A98932B67AAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6239609" y="1540488"/>
-          <a:ext cx="1" cy="1397975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>155448</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4764</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114667</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC42592-AFB5-4DD7-8777-A7AC8510E909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5916168" y="1297291"/>
-          <a:ext cx="809436" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>156064</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142509</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142509</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7038CBCF-B2CA-4F4D-8BF4-9C96C1D4D2BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6218727" y="1552209"/>
-          <a:ext cx="482111" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119429</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40452EC-06B7-4C0F-BBD9-3E9EDAB102DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4972050" y="2681654"/>
-          <a:ext cx="957263" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119428</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4355D0D4-FC5F-4C94-A57B-5A0F867C1ACA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2052638" y="2919778"/>
-          <a:ext cx="4205287" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132253</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128221</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128221</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AEB3FE-DFF2-498D-90BF-654BA7363083}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2046778" y="2233246"/>
-          <a:ext cx="353522" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>118697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>118697</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5581C0D6-2524-45C2-B690-52EEB8FEC979}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6138863" y="1071197"/>
-          <a:ext cx="557212" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>70339</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79863</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8777F6B-2EAE-4CDF-B87D-6EDE2F3D1058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1359877" y="1529861"/>
-          <a:ext cx="654294" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121921</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>70756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>223158</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>169816</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="楕円 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A850FF-18F6-4845-8126-DB8C1E0380F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5277395" y="797922"/>
-          <a:ext cx="101237" cy="99060"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -6551,14 +6667,1359 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>99823</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>242047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>166989</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矢印: 下 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F7B648-8F54-4655-A04F-8A34061C8EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11081588" y="7682753"/>
+          <a:ext cx="380930" cy="749786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矢印: 折線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9153A62B-2A21-43A5-BB96-42C9C7E31C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3272981" y="5410684"/>
+          <a:ext cx="1396771" cy="1563699"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53413B56-3624-495E-97F5-D36E2E4EF23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3222171"/>
+          <a:ext cx="2688771" cy="2166258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>272073</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261256</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矢印: 下 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A2CBD5-475D-44C4-B2BE-1F32D17DA1CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2166187" y="5505610"/>
+          <a:ext cx="620555" cy="737620"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250370</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10884</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矢印: 下 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F16DE12-9B11-4A63-A8CE-B42C787DCB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4082107" y="4410295"/>
+          <a:ext cx="620555" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156607</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D591D93-1526-47ED-9685-490D65234886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="87271" t="58522" r="1514" b="9265"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2149389" y="3380555"/>
+          <a:ext cx="908801" cy="2050721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267968</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58531</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矢印: 下 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF690B0-0EFC-4A05-A993-4A8A00FAEC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4114729" y="3165182"/>
+          <a:ext cx="620555" cy="737620"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169984</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169984</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F69C54-4869-4FBC-BDDF-BF37A6978307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5328138" y="756138"/>
+          <a:ext cx="0" cy="1002324"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189570</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D21B7E-DA9A-4742-8871-68A94ABF1422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4528110" y="2242396"/>
+          <a:ext cx="776153" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180610</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>315425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123094</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B74FC7-D77C-4A4F-95CF-400BFC4FE534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5286010" y="846994"/>
+          <a:ext cx="1411165" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C6E936-F036-4BE9-AB44-6C4DC21D683B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1914525" y="1767254"/>
+          <a:ext cx="957263" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13FF80B-D89F-4D14-9C75-224FCFE2D00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6513443" y="1767891"/>
+          <a:ext cx="165657" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>169991</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>169992</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CC6E68-BBA6-4988-9789-8897C5F75ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8184129" y="2223948"/>
+          <a:ext cx="1" cy="1980190"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C600433-E4AC-4898-A7EA-805E3407CCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3526223" y="2235673"/>
+          <a:ext cx="1" cy="1968465"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153135</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD320787-8F75-46B5-9D5B-C0F1548E5794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2067659" y="2212000"/>
+          <a:ext cx="1" cy="712175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172184</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172185</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11504128-CEBF-4F36-9163-A225BCC09D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5915759" y="1307125"/>
+          <a:ext cx="1" cy="1388450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176946</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176947</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBDF3F9-5089-426B-80B3-A98932B67AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6239609" y="1540488"/>
+          <a:ext cx="1" cy="1397975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155448</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC42592-AFB5-4DD7-8777-A7AC8510E909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5916168" y="1297291"/>
+          <a:ext cx="809436" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156064</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142509</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7038CBCF-B2CA-4F4D-8BF4-9C96C1D4D2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6218727" y="1552209"/>
+          <a:ext cx="482111" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40452EC-06B7-4C0F-BBD9-3E9EDAB102DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4972050" y="2681654"/>
+          <a:ext cx="957263" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4355D0D4-FC5F-4C94-A57B-5A0F867C1ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2052638" y="2919778"/>
+          <a:ext cx="4205287" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132253</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AEB3FE-DFF2-498D-90BF-654BA7363083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3658474" y="2708511"/>
+          <a:ext cx="354999" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118697</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5581C0D6-2524-45C2-B690-52EEB8FEC979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6138863" y="1071197"/>
+          <a:ext cx="557212" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70339</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79863</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8777F6B-2EAE-4CDF-B87D-6EDE2F3D1058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1359877" y="1529861"/>
+          <a:ext cx="654294" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>223158</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>169816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="楕円 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A850FF-18F6-4845-8126-DB8C1E0380F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6853797" y="1258425"/>
+          <a:ext cx="101237" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>116979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>172812</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172814</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>116979</xdr:rowOff>
     </xdr:to>
@@ -6575,8 +8036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1390650" y="1993404"/>
-          <a:ext cx="696687" cy="0"/>
+          <a:off x="2933700" y="2450604"/>
+          <a:ext cx="749077" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6603,12 +8064,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114667</xdr:rowOff>
@@ -6626,8 +8087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1438275" y="2676892"/>
-          <a:ext cx="957263" cy="0"/>
+          <a:off x="2819400" y="3132187"/>
+          <a:ext cx="1183005" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6653,13 +8114,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>157898</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>157898</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -6704,13 +8165,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>167423</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>167423</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
@@ -6755,13 +8216,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>312668</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>110541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>160273</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>110541</xdr:rowOff>
@@ -6806,13 +8267,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>317989</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142509</xdr:rowOff>
@@ -6853,6 +8314,726 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>282876</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD1EAAE-0F32-42CB-9A6F-529185211337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="87271" t="42987" r="1757" b="9265"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10721806" y="746293"/>
+          <a:ext cx="922021" cy="3163235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>141632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>141632</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABD07BA-50EF-4064-9F87-B2CF82F8DDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10062872" y="1181100"/>
+          <a:ext cx="0" cy="685874"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6856CE-9573-45FD-B2A5-6C77B23EF89B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="1181026"/>
+          <a:ext cx="0" cy="685874"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52562C8B-4330-409F-89FA-FD0D18C8DDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12336780" y="1188646"/>
+          <a:ext cx="0" cy="685874"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211470</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>318653</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C03FF25-C9F8-4B87-8698-8324D20497A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="4484" r="1702"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1736173" y="2716384"/>
+          <a:ext cx="1200287" cy="1063147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314328</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2CEAE1-7848-493D-9B3E-916A66F9EEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2878852" y="3296194"/>
+          <a:ext cx="647369" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158529</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE77478-4468-44F0-948F-932B8109A06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2094905" y="4222376"/>
+          <a:ext cx="357163" cy="141250"/>
+          <a:chOff x="3355212" y="3731942"/>
+          <a:chExt cx="354101" cy="141250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="直線コネクタ 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B92C26E-E432-4B84-8352-7D60BDE9175E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3355212" y="3735659"/>
+            <a:ext cx="354101" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線コネクタ 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE82E510-6CDF-439D-8D53-6D93237B4114}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3381234" y="3735659"/>
+            <a:ext cx="75644" cy="137533"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="直線コネクタ 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D49BEEF-BEF8-42FE-9ED0-3E693835BF25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3500181" y="3735659"/>
+            <a:ext cx="75644" cy="137533"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="47" name="直線コネクタ 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E79E84-18B0-4953-A494-68F3DE68F68F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3619127" y="3731942"/>
+            <a:ext cx="75644" cy="137533"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34434</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="グループ化 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB372DB-8BB9-4B3C-B82A-44CFA15A9FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6777318" y="4222376"/>
+          <a:ext cx="357163" cy="141250"/>
+          <a:chOff x="3355212" y="3731942"/>
+          <a:chExt cx="354101" cy="141250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="直線コネクタ 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AD5CB0-C33E-401E-8D20-146CE4262E2C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3355212" y="3735659"/>
+            <a:ext cx="354101" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="直線コネクタ 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6C71BB-CEE5-4C89-8917-FD6793E10B1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3381234" y="3735659"/>
+            <a:ext cx="75644" cy="137533"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="直線コネクタ 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84D86A2-C0EB-4575-AAD5-B7D99BF05F3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3500181" y="3735659"/>
+            <a:ext cx="75644" cy="137533"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="直線コネクタ 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A1C9A1-9298-4593-B2B5-F7DD93F59B06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3619127" y="3731942"/>
+            <a:ext cx="75644" cy="137533"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>269066</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>207391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49737</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="楕円 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5580216-6090-47C1-9503-64C7F6F692F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3474721" y="3250136"/>
+          <a:ext cx="101237" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7155,11 +9336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F19A9-3ADB-45C4-BB57-217CF39D9DEB}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7167,35 +9349,41 @@
     <col min="2" max="26" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -7203,7 +9391,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -7211,23 +9399,23 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -7235,7 +9423,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -7245,7 +9433,7 @@
     </row>
     <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7258,7 +9446,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="L25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7283,61 +9471,61 @@
       </c>
       <c r="J26" s="6"/>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L29" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L32" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C37" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
@@ -7347,12 +9535,12 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
@@ -7362,40 +9550,40 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
         <v>15</v>
       </c>
@@ -7403,176 +9591,369 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="2"/>
-      <c r="D57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B59" s="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B60" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B63" s="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B64" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" s="2"/>
-      <c r="D66" t="s">
-        <v>97</v>
+      <c r="C66" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B68" s="2"/>
+      <c r="B68" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" s="2"/>
-      <c r="D69" t="s">
-        <v>99</v>
+      <c r="C69" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B70" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" t="s">
-        <v>0</v>
+      <c r="B70" s="2"/>
+      <c r="D70" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="2"/>
+      <c r="D73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B74" s="9"/>
-      <c r="C74" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D76" t="s">
-        <v>85</v>
+      <c r="B76" s="9"/>
+      <c r="C76" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C78" t="s">
-        <v>87</v>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{EE3F8681-E454-4DC4-92D5-FFCCEDEB7414}" scale="115" topLeftCell="A52">
+      <selection activeCell="C58" sqref="C58"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2ED8A-E6AC-4214-970A-3292B5B327A3}">
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AR17" sqref="AR17"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="10.8984375" customWidth="1"/>
+    <col min="30" max="30" width="4.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="39" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="AF6" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+    </row>
+    <row r="7" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="E7" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="I7" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+    </row>
+    <row r="8" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="E8" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="C9" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="I9" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="AE9" s="55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="AE10" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="E11" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="I11" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="AE11" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="E12" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="AE12" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="C13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="AE13" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="I14" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="E15" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="I15" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="E16" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="41"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{EE3F8681-E454-4DC4-92D5-FFCCEDEB7414}" topLeftCell="A4">
+      <selection activeCell="N14" sqref="N14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="18">
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0E333-9386-4B56-8322-B1787B4368DB}">
   <dimension ref="B4:CZ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT20" sqref="AT20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7581,41 +9962,50 @@
   <sheetData>
     <row r="4" spans="5:104" ht="39" x14ac:dyDescent="0.45">
       <c r="E4" s="19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="5:104" ht="39" x14ac:dyDescent="0.45">
       <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="5:104" x14ac:dyDescent="0.45">
       <c r="U6" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="5:104" x14ac:dyDescent="0.45">
       <c r="Q10" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="5:104" x14ac:dyDescent="0.45">
+      <c r="E11" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="5:104" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="BW12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="CH12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="CS12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="5:104" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
       <c r="S13" s="15"/>
@@ -7650,6 +10040,9 @@
       <c r="CZ13" s="14"/>
     </row>
     <row r="14" spans="5:104" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="17">
         <v>0</v>
@@ -7733,32 +10126,23 @@
     </row>
     <row r="16" spans="5:104" x14ac:dyDescent="0.45">
       <c r="W16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>105</v>
+      <c r="AD17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:80" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>106</v>
+      <c r="AD18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:80" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
@@ -7767,14 +10151,20 @@
       <c r="V19" s="14"/>
       <c r="W19" s="15"/>
       <c r="X19" s="14"/>
-      <c r="AE19" t="s">
-        <v>104</v>
+      <c r="AD19" t="s">
+        <v>90</v>
       </c>
       <c r="CB19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:80" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="17">
         <v>0</v>
@@ -7795,51 +10185,56 @@
         <v>13</v>
       </c>
       <c r="X20" s="17"/>
-      <c r="AE20" t="s">
-        <v>71</v>
-      </c>
+      <c r="AD20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:80" x14ac:dyDescent="0.45">
+      <c r="M21" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.45">
+      <c r="G22" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.45">
       <c r="W23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.45">
-      <c r="L24" t="s">
-        <v>58</v>
-      </c>
       <c r="W24" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.45">
       <c r="B25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF25" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="L25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:80" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AF27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:80" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -7851,8 +10246,11 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
+      <c r="L28" t="s">
+        <v>165</v>
+      </c>
       <c r="Q28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="14"/>
@@ -7915,7 +10313,7 @@
     </row>
     <row r="30" spans="2:80" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="L30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="17">
@@ -7940,31 +10338,43 @@
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.45">
       <c r="L31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Z31" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+      <c r="W33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+        <v>52</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
@@ -7973,6 +10383,9 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
+      <c r="L36" t="s">
+        <v>54</v>
+      </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
       <c r="S36" s="15"/>
@@ -7981,8 +10394,16 @@
       <c r="V36" s="14"/>
       <c r="W36" s="15"/>
       <c r="X36" s="14"/>
-    </row>
-    <row r="37" spans="2:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="14"/>
+    </row>
+    <row r="37" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="16"/>
       <c r="C37" s="17">
         <v>0</v>
@@ -8003,6 +10424,9 @@
         <v>13</v>
       </c>
       <c r="I37" s="17"/>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="17">
         <v>0</v>
@@ -8019,301 +10443,27 @@
       </c>
       <c r="W37" s="18"/>
       <c r="X37" s="17"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="17"/>
+    </row>
+    <row r="40" spans="2:39" x14ac:dyDescent="0.45">
       <c r="Q40" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2ED8A-E6AC-4214-970A-3292B5B327A3}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="39" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="C9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="C13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="17" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD15DD-46C1-40CF-AF02-CB4C9657D8F8}">
-  <dimension ref="A1:Z13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="51" width="4.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="39" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
-      <c r="L2" s="29"/>
-      <c r="O2" s="45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="19"/>
-      <c r="L3" s="29"/>
-      <c r="P3" s="45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="19"/>
-      <c r="L4" s="37"/>
-      <c r="Q4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="41">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="27"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="J6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="39">
-        <v>2</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="42">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>124</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="30"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="J7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="39">
-        <v>3</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="42">
-        <v>16</v>
-      </c>
-      <c r="N7" t="s">
-        <v>123</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="30"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="D8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="39">
-        <v>4</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="42">
-        <v>15</v>
-      </c>
-      <c r="N8" t="s">
-        <v>122</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="30"/>
-    </row>
-    <row r="9" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="39">
-        <v>5</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="42">
-        <v>14</v>
-      </c>
-      <c r="N9" t="s">
-        <v>120</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="33"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="D10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="39">
-        <v>6</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="42">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="J11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="39">
-        <v>7</v>
-      </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="42">
-        <v>12</v>
-      </c>
-      <c r="N11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="J12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="39">
-        <v>8</v>
-      </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="42">
-        <v>11</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="40">
-        <v>9</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="43">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="X6:Y8"/>
+  <customSheetViews>
+    <customSheetView guid="{EE3F8681-E454-4DC4-92D5-FFCCEDEB7414}" scale="85" showGridLines="0" topLeftCell="A19">
+      <selection activeCell="AT28" sqref="AT28"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8321,13 +10471,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E28B7ED-3B4A-421D-ABDD-92E214B58BD1}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8337,38 +10488,341 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>43997</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>43997</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="22">
+        <v>43998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{EE3F8681-E454-4DC4-92D5-FFCCEDEB7414}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD15DD-46C1-40CF-AF02-CB4C9657D8F8}">
+  <dimension ref="A1:AK19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+    <sheetView topLeftCell="C1" workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="49" width="4.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="39" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19"/>
+      <c r="M2" s="27"/>
+      <c r="P2" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="19"/>
+      <c r="M3" s="27"/>
+      <c r="Q3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG3" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AK3" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="19"/>
+      <c r="M4" s="32"/>
+      <c r="R4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG4" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH4" s="43"/>
+      <c r="AK4" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="33">
+        <v>1</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="36">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="25"/>
+    </row>
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="34">
+        <v>2</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="37">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+    </row>
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="34">
+        <v>3</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="37">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="47"/>
+    </row>
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="34">
+        <v>4</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="37">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
+    </row>
+    <row r="9" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="34">
+        <v>5</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="37">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="30"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="E10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="34">
+        <v>6</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="37">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="K11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="34">
+        <v>7</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="37">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="K12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="34">
+        <v>8</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="37">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="35">
+        <v>9</v>
+      </c>
+      <c r="M13" s="49"/>
+      <c r="N13" s="38">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B17" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="G19" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="V19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{EE3F8681-E454-4DC4-92D5-FFCCEDEB7414}" scale="85">
+      <selection activeCell="AK17" sqref="AK17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="7">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>